--- a/app/tables/tabla_biseccion.xlsx
+++ b/app/tables/tabla_biseccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-15.5354061665063</t>
+          <t>-0.125</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000005</t>
+          <t>1.000001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-7.76046437070352</t>
+          <t>1.609375</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>0.142857142857143</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>34.375</t>
+          <t>1.625</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.38630689190715</t>
+          <t>0.666015625</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.625</t>
+          <t>0.0769230769230769</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.1875</t>
+          <t>1.5625</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.12430878314094</t>
+          <t>0.252197265625</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.8125</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38.59375</t>
+          <t>1.53125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.022117576163545</t>
+          <t>0.059112548828125</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.40625</t>
+          <t>0.0204081632653061</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37.890625</t>
+          <t>1.515625</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.552301040083382</t>
+          <t>-0.0340538024902344</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>0.0103092783505155</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38.2421875</t>
+          <t>1.5234375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.265387537314954</t>
+          <t>0.0122504234313965</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.3515625</t>
+          <t>0.0051282051282051</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>38.41796875</t>
+          <t>1.51953125</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.121708254405178</t>
+          <t>-0.0109712481498718</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.17578125</t>
+          <t>0.0025706940874036</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38.505859375</t>
+          <t>1.521484375</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.0498135739055385</t>
+          <t>0.0006221756339073</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.087890625</t>
+          <t>0.0012836970474967</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38.5498046875</t>
+          <t>1.5205078125</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.0138525471707283</t>
+          <t>-0.0051788864657282</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0439453125</t>
+          <t>0.0006422607578676</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38.57177734375</t>
+          <t>1.52099609375</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0041313787171439</t>
+          <t>-0.0022794433170929</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.02197265625</t>
+          <t>0.0003210272873194</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38.560791015625</t>
+          <t>1.521240234375</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.0048608683333952</t>
+          <t>-0.0008289058605441</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.010986328125</t>
+          <t>0.0001604878831648</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>38.5662841796875</t>
+          <t>1.5213623046875</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.0003648158145423</t>
+          <t>-0.0001034331235132</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0054931640625</t>
+          <t>8.02375030089064e-05</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>38.5690307617188</t>
+          <t>1.52142333984375</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0018832637022256</t>
+          <t>0.0002593542519662</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00274658203125</t>
+          <t>4.01171420548e-05</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38.5676574707031</t>
+          <t>1.52139282226562</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0007592195062571</t>
+          <t>7.79563135040462e-05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.001373291015625</t>
+          <t>2.00589733817423e-05</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38.5669708251953</t>
+          <t>1.52137756347656</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.000197200736423</t>
+          <t>-1.27394676745496e-05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0006866455078125</t>
+          <t>1.00295872824833e-05</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>38.5666275024414</t>
+          <t>1.52138519287109</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-8.38078164235867e-05</t>
+          <t>3.2608157245928e-05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0003433227539062</t>
+          <t>5.01476849321251e-06</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38.5667991638184</t>
+          <t>1.52138137817383</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.66963906578621e-05</t>
+          <t>9.93427836881722e-06</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0001716613769531</t>
+          <t>2.50739053359778e-06</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38.5667133331299</t>
+          <t>1.5213794708252</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1.35557302165523e-05</t>
+          <t>-1.40261125736174e-06</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.58306884765625e-05</t>
+          <t>1.25369683855268e-06</t>
         </is>
       </c>
     </row>
@@ -881,39 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38.5667562484741</t>
+          <t>1.52138042449951</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.15703258845679e-05</t>
+          <t>4.26582940482589e-06</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.29153442382812e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>38.566734790802</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4.00729675220646e-06</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.14576721191406e-05</t>
+          <t>6.26848026337647e-07</t>
         </is>
       </c>
     </row>
